--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas industrial en versión actual sistema MRV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B949D00-B57C-479C-AE3F-F89229178DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB956F-038B-4204-866C-60B4717D07DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTORES ELECTRICOS" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Etiqueta Iniciativa1</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo.</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,13 +850,13 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>25</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -9805,7 +9805,7 @@
       <c r="K311" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9rJ4yj4mJpK74Wt9C5Sgtx7anW3gMmjTBbJLonfrLkjGpf4+6SCZThlaRJYVs/1eypEQj4LMFkrttbZUKVXVGQ==" saltValue="r9hg6W7dQitGImuILNFliw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OfX7YiJa04i0E7mytYPB4SiTvPDvyBUtYtHguL2jyu7zmfuYqViyDUMu4l8qT5MBeWANndKmJbOWEbu6e6m+jA==" saltValue="USK+cNt5dUxpDJ/nBiBoOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
@@ -9866,7 +9866,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
@@ -9878,7 +9878,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>4</v>
@@ -9889,7 +9889,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -9924,7 +9924,7 @@
         <v>2011</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -9947,7 +9947,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -9970,13 +9970,13 @@
         <v>2013</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="10">
         <v>4</v>
@@ -9993,13 +9993,13 @@
         <v>2014</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10">
         <v>5</v>
@@ -10016,7 +10016,7 @@
         <v>2015</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="10">
         <v>6</v>
@@ -10033,7 +10033,7 @@
         <v>2016</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="10">
         <v>7</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas industrial en versión actual sistema MRV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CB956F-038B-4204-866C-60B4717D07DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B58A4EF-87C8-4436-A3A9-E8F751B224D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTORES ELECTRICOS" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="45">
   <si>
     <t>Año</t>
   </si>
@@ -116,25 +116,13 @@
     <t xml:space="preserve">id </t>
   </si>
   <si>
-    <t>Año en que se compró el equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Potencia del equipo de motores eléctricos. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
-    <t>Número de unidades de este equipo. Inserte su dato.</t>
   </si>
   <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
     <t>Etiqueta de EE BAU</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE Acción</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
   </si>
   <si>
     <t>Etiqueta Iniciativa1</t>
@@ -170,7 +158,28 @@
     <t>G</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo.</t>
+    <t>Año de registro. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE de linea base. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo A.</t>
+  </si>
+  <si>
+    <t>Número de motores eléctricos con etiqueta A. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo B.</t>
+  </si>
+  <si>
+    <t>Número de motores eléctricos con etiqueta B. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (A)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (B)</t>
   </si>
 </sst>
 </file>
@@ -767,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803A6200-2215-4414-82A5-9D46C087A6F4}">
   <dimension ref="A1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +789,10 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -800,13 +809,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
@@ -815,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>2</v>
@@ -823,7 +832,7 @@
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -838,28 +847,28 @@
     </row>
     <row r="3" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -9805,7 +9814,7 @@
       <c r="K311" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OfX7YiJa04i0E7mytYPB4SiTvPDvyBUtYtHguL2jyu7zmfuYqViyDUMu4l8qT5MBeWANndKmJbOWEbu6e6m+jA==" saltValue="USK+cNt5dUxpDJ/nBiBoOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KMg5KCvXaqsEUzQCAMdaE9ebcRYip9eXr3G4DF11TJLMjVq4QRiB6P7QXgKiHWWUsrq8QVcdfyF1te4jJ0N+SA==" saltValue="U2ffRVPOZWaR3k7sVlw2dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
@@ -9866,7 +9875,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
@@ -9878,7 +9887,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>4</v>
@@ -9889,7 +9898,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -9924,7 +9933,7 @@
         <v>2011</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -9947,7 +9956,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -9970,13 +9979,13 @@
         <v>2013</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10">
         <v>4</v>
@@ -9993,13 +10002,13 @@
         <v>2014</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="10">
         <v>5</v>
@@ -10016,7 +10025,7 @@
         <v>2015</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" s="10">
         <v>6</v>
@@ -10033,7 +10042,7 @@
         <v>2016</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="10">
         <v>7</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.2 Plantilla_Etiquetado_de_eficiencia_Motores Electricos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B58A4EF-87C8-4436-A3A9-E8F751B224D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E7E43-C316-4BE1-937C-65A9DCC26C02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE14607C-A7C6-410C-8435-11DD333EF11B}"/>
   </bookViews>
   <sheets>
     <sheet name="MOTORES ELECTRICOS" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -119,9 +113,6 @@
     <t>Potencia del equipo de motores eléctricos. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-  </si>
-  <si>
     <t>Etiqueta de EE BAU</t>
   </si>
   <si>
@@ -180,6 +171,9 @@
   </si>
   <si>
     <t>Etiqueta de EE (B)</t>
+  </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos. Evite borrar las etiquetas que se muestran por defecto desplegadas.</t>
   </si>
 </sst>
 </file>
@@ -776,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803A6200-2215-4414-82A5-9D46C087A6F4}">
   <dimension ref="A1:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
@@ -824,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>2</v>
@@ -832,7 +826,7 @@
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -847,7 +841,7 @@
     </row>
     <row r="3" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
@@ -855,20 +849,20 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -880,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -9814,7 +9808,7 @@
       <c r="K311" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KMg5KCvXaqsEUzQCAMdaE9ebcRYip9eXr3G4DF11TJLMjVq4QRiB6P7QXgKiHWWUsrq8QVcdfyF1te4jJ0N+SA==" saltValue="U2ffRVPOZWaR3k7sVlw2dQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kuaY7puoLmXvoQFC5GgnmNpuHaiyAEMEXN9/lVoSTeE4SW6QPz/eo1TrHtlUVnUaXE7DQ+SaiV7f9wQFvSsL2w==" saltValue="lzrnsYh8FJ0t7jN6fjB1qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
@@ -9875,7 +9869,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
@@ -9887,7 +9881,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>4</v>
@@ -9898,7 +9892,7 @@
         <v>2010</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -9933,7 +9927,7 @@
         <v>2011</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -9956,7 +9950,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -9979,13 +9973,13 @@
         <v>2013</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10">
         <v>4</v>
@@ -10002,13 +9996,13 @@
         <v>2014</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10">
         <v>5</v>
@@ -10025,7 +10019,7 @@
         <v>2015</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10">
         <v>6</v>
@@ -10042,7 +10036,7 @@
         <v>2016</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="10">
         <v>7</v>
